--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TI4Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AAB79C-B2BC-4DC0-A838-D9BFCDD7D653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04988ED8-74DA-4FCE-96BE-D81ABF701ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="4668" windowWidth="43692" windowHeight="18972" tabRatio="796" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1224" yWindow="4668" windowWidth="43692" windowHeight="18972" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="1459">
   <si>
     <t>Count</t>
   </si>
@@ -4431,10 +4431,10 @@
     <t>&lt;b&gt;After you cast votes on the outcome of an agenda:&lt;/b&gt;&lt;br&gt;&lt;br&gt;Cast 5 additional votes for that outcome.  If that outcome is resolved, you gain 1 command token from your reinforcements.</t>
   </si>
   <si>
-    <t>@[HR,1.75]&lt;ac&gt;&lt;i&gt;The council's research grants would allow for further trips into the ruins of their older worlds.&lt;/i&gt;&lt;/ac&gt;</t>
-  </si>
-  <si>
-    <t>@[HR,1.75]&lt;ac&gt;&lt;i&gt;Elder Junn was a wonder to behold. He knew the name of every senator, made small talk effortlessly, and commanded attention when he spoke.  Magmus hated everything about him.&lt;/i&gt;&lt;/ac&gt;</t>
+    <t>The council's research grants would allow for further trips into the ruins of their older worlds.&lt;/i&gt;&lt;/ac&gt;</t>
+  </si>
+  <si>
+    <t>Elder Junn was a wonder to behold. He knew the name of every senator, made small talk effortlessly, and commanded attention when he spoke.  Magmus hated everything about him.&lt;/i&gt;&lt;/ac&gt;</t>
   </si>
 </sst>
 </file>
@@ -4787,7 +4787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CFAFC0-291D-454B-8D29-90443E714B4F}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
@@ -15984,7 +15984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B804C802-B765-4564-AA28-17FA9BD54FDF}">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>

--- a/Template_Data.xlsx
+++ b/Template_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TI4Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04988ED8-74DA-4FCE-96BE-D81ABF701ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5DAD16C-13F8-475D-ABBB-18F38F1CDF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="4668" windowWidth="43692" windowHeight="18972" tabRatio="796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1224" yWindow="4668" windowWidth="39480" windowHeight="18972" tabRatio="796" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="14" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="1459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3555" uniqueCount="1472">
   <si>
     <t>Count</t>
   </si>
@@ -3957,12 +3957,6 @@
     <t>@[Star] ANTI-FIGHTER BARRAGE 9 (X2)</t>
   </si>
   <si>
-    <t>#(if @[Upgrade Cost A] != #empty then #(if @[Capacity] != #empty then Images\Faction Reference\Faction_Unit_Tech_Mask_4.png else #(if @[Move] != #empty then Images\Faction Reference\Faction_Unit_Tech_Mask_3.png else #(if @[Combat] != #empty then Images\Faction Reference\Faction_Unit_Tech_Mask_2.png else #(if @[Cost] != #empty then Images\Faction Reference\Faction_Unit_Tech_Mask_1.png else Images\Faction Reference\Faction_Unit_Tech_Mask_0.png)#)#)#)# else Images\Faction Reference\Faction_Unit_Tech_Mask_Flagship.png)#</t>
-  </si>
-  <si>
-    <t>#(if @[Upgrade Cost A] != #empty then #(if @[Capacity] != #empty then Images\Faction Reference\Faction_Unit_Tech_Base_4.png else #(if @[Move] != #empty then Images\Faction Reference\Faction_Unit_Tech_Base_3.png else #(if @[Combat] != #empty then Images\Faction Reference\Faction_Unit_Tech_Base_2.png else #(if @[Cost] != #empty then Images\Faction Reference\Faction_Unit_Tech_Base_1.png else Images\Faction Reference\Faction_Unit_Tech_Base_0.png)#)#)#)# else Images\Faction Reference\Faction_Unit_Tech_Base_Flagship.png)#</t>
-  </si>
-  <si>
     <t>#(if @[SubName] != #empty then Images\Faction Reference\Faction_Unit_Tech_Border_Faction.png else Images\Faction Reference\Faction_Unit_Tech_Border_Normal.png)#</t>
   </si>
   <si>
@@ -4203,9 +4197,6 @@
     <t>Faction_Unit</t>
   </si>
   <si>
-    <t>#(if @[Cost] == #empty then $[y:#math;&amp;[y]+340#])#</t>
-  </si>
-  <si>
     <t>#(if @[Upgrade Cost A] != #empty then $[x:#math;&amp;[x]-130#])#</t>
   </si>
   <si>
@@ -4435,6 +4426,54 @@
   </si>
   <si>
     <t>Elder Junn was a wonder to behold. He knew the name of every senator, made small talk effortlessly, and commanded attention when he spoke.  Magmus hated everything about him.&lt;/i&gt;&lt;/ac&gt;</t>
+  </si>
+  <si>
+    <t>SPACE TESTING</t>
+  </si>
+  <si>
+    <t>No Spaces:~!@#$%^&amp;*()"This is a test"Again"This is a test"Again&lt;br&gt;With Spaces: ~!@#$%^&amp;*() "This is a test" Again "This is a test" Again</t>
+  </si>
+  <si>
+    <t>Faction_Unit_Space_Dock_Special</t>
+  </si>
+  <si>
+    <t>Unique_SpaceDock_Test_Movable</t>
+  </si>
+  <si>
+    <t>FACTION FLOATING DOCK</t>
+  </si>
+  <si>
+    <t>TechMask</t>
+  </si>
+  <si>
+    <t>Images\Faction Reference\Faction_Unit_Tech_Mask_{1}.png</t>
+  </si>
+  <si>
+    <t>#(if @[Upgrade Cost A] != #empty then #(if @[Cost] != #empty then #(if @[Combat] != #empty then #(if @[Move] != #empty then #(if @[Capacity] != #empty then @[TechMask,4] else @[TechMask,3] )# else #(if @[Capacity] != #empty then @[TechMask,4] else @[TechMask,2] )# )# else #(if @[Move] != #empty then #(if @[Capacity] != #empty then @[TechMask,4] else @[TechMask,3] )# else #(if @[Capacity] != #empty then @[TechMask,4] else @[TechMask,1] )# )# )# else #(if @[Combat] != #empty then #(if @[Move] != #empty then #(if @[Capacity] != #empty then @[TechMask,5] else @[TechMask,3] )# else #(if @[Capacity] != #empty then @[TechMask,5] else @[TechMask,6] )# )# else #(if @[Move] != #empty then #(if @[Capacity] != #empty then @[TechMask,6] else @[TechMask,6] )# else #(if @[Capacity] != #empty then @[TechMask,7] else @[TechMask,0] )# )# )# )# else @[TechMask,Flagship] )#</t>
+  </si>
+  <si>
+    <t>TechBase</t>
+  </si>
+  <si>
+    <t>Images\Faction Reference\Faction_Unit_Tech_Base_{1}.png</t>
+  </si>
+  <si>
+    <t>#(if @[Upgrade Cost A] != #empty then #(if @[Cost] != #empty then #(if @[Combat] != #empty then #(if @[Move] != #empty then #(if @[Capacity] != #empty then @[TechBase,4] else @[TechBase,3] )# else #(if @[Capacity] != #empty then @[TechBase,4] else @[TechBase,2] )# )# else #(if @[Move] != #empty then #(if @[Capacity] != #empty then @[TechBase,4] else @[TechBase,3] )# else #(if @[Capacity] != #empty then @[TechBase,4] else @[TechBase,1] )# )# )# else #(if @[Combat] != #empty then #(if @[Move] != #empty then #(if @[Capacity] != #empty then @[TechBase,5] else @[TechBase,3] )# else #(if @[Capacity] != #empty then @[TechBase,5] else @[TechBase,6] )# )# else #(if @[Move] != #empty then #(if @[Capacity] != #empty then @[TechBase,6] else @[TechBase,6] )# else #(if @[Capacity] != #empty then @[TechBase,7] else @[TechBase,0] )# )# )# )# else @[TechBase,Flagship] )#</t>
+  </si>
+  <si>
+    <t>FACTION PEE DEE ESS</t>
+  </si>
+  <si>
+    <t>Unique_PDS_Test_2</t>
+  </si>
+  <si>
+    <t>AbilityOffsetMacro</t>
+  </si>
+  <si>
+    <t>$[y:#math;&amp;[y]+340#]</t>
+  </si>
+  <si>
+    <t>#(if @[Cost] == #empty then  #(if @[Combat] == #empty then @[AbilityOffsetMacro])#)#</t>
   </si>
 </sst>
 </file>
@@ -4785,11 +4824,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CFAFC0-291D-454B-8D29-90443E714B4F}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4813,10 +4852,10 @@
         <v>68</v>
       </c>
       <c r="E1" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="F1" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4835,18 +4874,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
         <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>1160</v>
+        <v>1456</v>
       </c>
       <c r="E3" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F3" t="s">
         <v>1457</v>
       </c>
     </row>
@@ -4855,19 +4894,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>499</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E4" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -4881,10 +4920,13 @@
         <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>855</v>
+        <v>1161</v>
       </c>
       <c r="E5" t="s">
-        <v>885</v>
+        <v>1453</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4898,10 +4940,10 @@
         <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4915,10 +4957,10 @@
         <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E7" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4932,10 +4974,10 @@
         <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4949,10 +4991,10 @@
         <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4966,10 +5008,10 @@
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E10" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4983,10 +5025,10 @@
         <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -5000,10 +5042,10 @@
         <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E12" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5017,10 +5059,10 @@
         <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="E13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5034,10 +5076,10 @@
         <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E14" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5051,10 +5093,10 @@
         <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5068,10 +5110,10 @@
         <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E16" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -5085,10 +5127,10 @@
         <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E17" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -5102,10 +5144,10 @@
         <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E18" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -5119,10 +5161,10 @@
         <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E19" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -5136,10 +5178,10 @@
         <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="E20" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -5153,10 +5195,10 @@
         <v>69</v>
       </c>
       <c r="D21" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E21" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -5170,10 +5212,10 @@
         <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E22" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -5187,10 +5229,10 @@
         <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E23" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -5204,10 +5246,10 @@
         <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E24" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -5221,10 +5263,10 @@
         <v>69</v>
       </c>
       <c r="D25" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E25" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -5238,10 +5280,10 @@
         <v>69</v>
       </c>
       <c r="D26" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E26" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -5255,10 +5297,10 @@
         <v>69</v>
       </c>
       <c r="D27" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E27" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -5272,10 +5314,10 @@
         <v>69</v>
       </c>
       <c r="D28" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E28" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -5289,10 +5331,10 @@
         <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E29" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -5306,10 +5348,10 @@
         <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E30" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -5323,10 +5365,10 @@
         <v>69</v>
       </c>
       <c r="D31" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E31" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -5340,10 +5382,10 @@
         <v>69</v>
       </c>
       <c r="D32" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E32" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -5357,10 +5399,10 @@
         <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E33" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -5374,9 +5416,26 @@
         <v>69</v>
       </c>
       <c r="D34" t="s">
+        <v>883</v>
+      </c>
+      <c r="E34" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="s">
+        <v>499</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
         <v>884</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" t="s">
         <v>914</v>
       </c>
     </row>
@@ -5879,25 +5938,25 @@
         <v>1078</v>
       </c>
       <c r="C2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="D2" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E2" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>1185</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I2" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -5920,19 +5979,19 @@
         <v>1176</v>
       </c>
       <c r="D3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E3" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -5955,13 +6014,13 @@
         <v>1177</v>
       </c>
       <c r="D4" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E4" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>1187</v>
@@ -5979,7 +6038,7 @@
         <v>557</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -5990,19 +6049,19 @@
         <v>1078</v>
       </c>
       <c r="C5" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="D5" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="E5" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -6025,19 +6084,19 @@
         <v>1076</v>
       </c>
       <c r="D6" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E6" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -6057,16 +6116,16 @@
         <v>1078</v>
       </c>
       <c r="C7" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D7" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E7" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>1188</v>
@@ -6078,7 +6137,7 @@
         <v>2</v>
       </c>
       <c r="L7" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>557</v>
@@ -15739,7 +15798,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C2">
         <v>666666</v>
@@ -15762,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C3" t="s">
         <v>1232</v>
@@ -15785,7 +15844,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C4" t="s">
         <v>1233</v>
@@ -15808,7 +15867,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C5" t="s">
         <v>1234</v>
@@ -15831,7 +15890,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C6" t="s">
         <v>1235</v>
@@ -15854,7 +15913,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C7" t="s">
         <v>1236</v>
@@ -15877,7 +15936,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C8" t="s">
         <v>1237</v>
@@ -15900,7 +15959,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C9" t="s">
         <v>1238</v>
@@ -15923,7 +15982,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C10" t="s">
         <v>1239</v>
@@ -15946,7 +16005,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="C11" t="s">
         <v>1240</v>
@@ -17971,7 +18030,7 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="F2" t="s">
         <v>83</v>
@@ -18033,46 +18092,46 @@
         <v>83</v>
       </c>
       <c r="G3" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="H3" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="J3">
         <v>3</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>1423</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" s="1" t="s">
         <v>1425</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="Q3" t="s">
         <v>1426</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="R3" t="s">
         <v>1427</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="S3" t="s">
         <v>1428</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="T3" t="s">
         <v>1429</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1431</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -18092,10 +18151,10 @@
         <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="H4" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>1187</v>
@@ -18115,16 +18174,16 @@
         <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -18147,46 +18206,46 @@
         <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="H6" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1436</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1422</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>1438</v>
       </c>
-      <c r="L6" t="s">
+      <c r="P6" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="M6" t="s">
-        <v>1425</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" t="s">
         <v>1440</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="R6" t="s">
         <v>1441</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="S6" t="s">
         <v>1442</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="T6" t="s">
         <v>1443</v>
-      </c>
-      <c r="R6" t="s">
-        <v>1444</v>
-      </c>
-      <c r="S6" t="s">
-        <v>1445</v>
-      </c>
-      <c r="T6" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -18200,16 +18259,16 @@
         <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="F7" t="s">
         <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="H7" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>1188</v>
@@ -18218,13 +18277,13 @@
         <v>3</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="L7" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="M7" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
   </sheetData>
@@ -18236,8 +18295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C32793-D226-472C-8A2C-E717CBCC59EF}">
   <dimension ref="A1:DC13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D13"/>
+    <sheetView topLeftCell="AB1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18268,7 +18327,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C1" t="s">
         <v>73</v>
@@ -18283,7 +18342,7 @@
         <v>811</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="H1" t="s">
         <v>816</v>
@@ -18373,34 +18432,34 @@
         <v>1111</v>
       </c>
       <c r="AK1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AL1" t="s">
         <v>1309</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AO1" t="s">
         <v>1311</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>1312</v>
       </c>
-      <c r="AN1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AO1" t="s">
+      <c r="AQ1" t="s">
         <v>1313</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AR1" t="s">
         <v>1314</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AS1" t="s">
         <v>1315</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AT1" t="s">
         <v>1316</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="2" spans="1:107" x14ac:dyDescent="0.3">
@@ -18470,7 +18529,7 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
@@ -18573,7 +18632,7 @@
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
@@ -18684,7 +18743,7 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -18796,7 +18855,7 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
@@ -18941,11 +19000,16 @@
         <v>1230</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>1319</v>
+        <v>1317</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>1468</v>
       </c>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
+      <c r="AT6" t="s">
+        <v>1459</v>
+      </c>
       <c r="BV6" s="1"/>
       <c r="CN6" s="1"/>
       <c r="CU6" s="1"/>
@@ -19052,34 +19116,34 @@
         <v>1230</v>
       </c>
       <c r="AK7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AN7" t="s">
         <v>1351</v>
       </c>
-      <c r="AL7" t="s">
-        <v>1350</v>
-      </c>
-      <c r="AM7" t="s">
+      <c r="AO7" t="s">
         <v>1352</v>
       </c>
-      <c r="AN7" t="s">
-        <v>1353</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>1354</v>
-      </c>
       <c r="AP7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AR7" t="s">
         <v>1364</v>
       </c>
-      <c r="AQ7" t="s">
+      <c r="AS7" t="s">
         <v>1365</v>
       </c>
-      <c r="AR7" t="s">
+      <c r="AT7" t="s">
         <v>1366</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>1367</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>1368</v>
       </c>
       <c r="BV7" s="1"/>
       <c r="CN7" s="1"/>
@@ -19100,13 +19164,13 @@
         <v>1185</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H8" t="s">
         <v>817</v>
@@ -19118,7 +19182,7 @@
         <v>1046</v>
       </c>
       <c r="M8" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="N8" t="s">
         <v>1050</v>
@@ -19186,7 +19250,7 @@
         <v>1137</v>
       </c>
       <c r="AK8" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
@@ -19205,16 +19269,16 @@
         <v>1078</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="H9" t="s">
         <v>817</v>
@@ -19292,10 +19356,10 @@
         <v>1130</v>
       </c>
       <c r="AK9" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="AR9" s="1" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
@@ -19344,7 +19408,7 @@
         <v>1156</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>1141</v>
@@ -19403,11 +19467,11 @@
         <v>1131</v>
       </c>
       <c r="AK10" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="AR10" s="1"/>
       <c r="AT10" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
@@ -19425,16 +19489,16 @@
         <v>1078</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>1385</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>1388</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>1391</v>
       </c>
       <c r="H11" t="s">
         <v>817</v>
@@ -19449,7 +19513,7 @@
         <v>1060</v>
       </c>
       <c r="M11" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="N11" t="s">
         <v>1061</v>
@@ -19519,7 +19583,7 @@
         <v>1130</v>
       </c>
       <c r="AK11" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
@@ -19538,16 +19602,16 @@
         <v>1078</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="H12" t="s">
         <v>817</v>
@@ -19627,10 +19691,10 @@
         <v>1122</v>
       </c>
       <c r="AK12" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="AM12" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="AR12" s="1"/>
       <c r="AZ12" s="1"/>
@@ -19669,7 +19733,7 @@
         <v>1071</v>
       </c>
       <c r="M13" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="N13" t="s">
         <v>1074</v>
@@ -19735,14 +19799,14 @@
         <v>1122</v>
       </c>
       <c r="AK13" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="AN13" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="AR13" s="1"/>
       <c r="AT13" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
@@ -19779,10 +19843,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
     </row>
   </sheetData>
@@ -19792,10 +19856,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58E66AF-62C7-4982-AB60-31C499FE1DAD}">
-  <dimension ref="A1:CF38"/>
+  <dimension ref="A1:CF40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19818,13 +19882,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="D1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="E1" t="s">
         <v>809</v>
@@ -19884,40 +19948,40 @@
         <v>1297</v>
       </c>
       <c r="X1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="Y1" t="s">
         <v>1309</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AB1" t="s">
         <v>1311</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>1312</v>
       </c>
-      <c r="AA1" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>1313</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>1314</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>1315</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>1316</v>
       </c>
-      <c r="AF1" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>1318</v>
-      </c>
       <c r="AH1" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="AI1" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="2" spans="1:84" x14ac:dyDescent="0.3">
@@ -19925,7 +19989,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C2" t="s">
         <v>90</v>
@@ -19934,16 +19998,16 @@
         <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I2" t="s">
         <v>1154</v>
@@ -19981,7 +20045,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C3" t="s">
         <v>764</v>
@@ -19990,16 +20054,16 @@
         <v>764</v>
       </c>
       <c r="E3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H3" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J3" t="s">
         <v>1279</v>
@@ -20041,7 +20105,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C4" t="s">
         <v>138</v>
@@ -20050,16 +20114,16 @@
         <v>138</v>
       </c>
       <c r="E4" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F4" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G4" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H4" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J4" t="s">
         <v>1282</v>
@@ -20101,7 +20165,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C5" t="s">
         <v>148</v>
@@ -20110,16 +20174,16 @@
         <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H5" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J5" t="s">
         <v>1281</v>
@@ -20170,7 +20234,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C6" t="s">
         <v>558</v>
@@ -20179,16 +20243,16 @@
         <v>558</v>
       </c>
       <c r="E6" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F6" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G6" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H6" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J6" t="s">
         <v>1283</v>
@@ -20224,7 +20288,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C7" t="s">
         <v>139</v>
@@ -20233,16 +20297,16 @@
         <v>139</v>
       </c>
       <c r="E7" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F7" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G7" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H7" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J7" t="s">
         <v>1284</v>
@@ -20273,7 +20337,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C8" t="s">
         <v>147</v>
@@ -20282,16 +20346,16 @@
         <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F8" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G8" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H8" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J8" t="s">
         <v>1285</v>
@@ -20327,7 +20391,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C9" t="s">
         <v>560</v>
@@ -20336,16 +20400,16 @@
         <v>560</v>
       </c>
       <c r="E9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H9" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J9" t="s">
         <v>1286</v>
@@ -20375,7 +20439,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C10" t="s">
         <v>559</v>
@@ -20384,16 +20448,16 @@
         <v>559</v>
       </c>
       <c r="E10" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F10" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G10" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H10" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J10" t="s">
         <v>1287</v>
@@ -20424,7 +20488,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C11" t="s">
         <v>545</v>
@@ -20433,25 +20497,25 @@
         <v>545</v>
       </c>
       <c r="E11" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F11" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G11" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H11" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="J11" t="s">
         <v>1288</v>
       </c>
       <c r="L11" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="T11" t="s">
         <v>121</v>
@@ -20472,28 +20536,28 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C12" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="D12" t="s">
         <v>90</v>
       </c>
       <c r="E12" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F12" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G12" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H12" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I12" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="J12" t="s">
         <v>1047</v>
@@ -20520,7 +20584,7 @@
         <v>124</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="AE12" s="1"/>
     </row>
@@ -20529,25 +20593,25 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C13" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F13" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G13" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H13" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I13" t="s">
         <v>1176</v>
@@ -20556,7 +20620,7 @@
         <v>1054</v>
       </c>
       <c r="K13" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="L13" t="s">
         <v>1056</v>
@@ -20582,34 +20646,34 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C14" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="D14" t="s">
         <v>560</v>
       </c>
       <c r="E14" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F14" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G14" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H14" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I14" t="s">
         <v>1176</v>
       </c>
       <c r="J14" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="K14" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="M14" t="s">
         <v>1041</v>
@@ -20635,37 +20699,37 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C15" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="D15" t="s">
         <v>90</v>
       </c>
       <c r="E15" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F15" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G15" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H15" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I15" t="s">
         <v>1177</v>
       </c>
       <c r="J15" t="s">
+        <v>1372</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L15" t="s">
         <v>1374</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1375</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1376</v>
       </c>
       <c r="M15" s="1">
         <v>8</v>
@@ -20720,34 +20784,34 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C16" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D16" t="s">
         <v>545</v>
       </c>
       <c r="E16" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F16" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G16" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H16" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I16" t="s">
         <v>1177</v>
       </c>
       <c r="J16" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="K16" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="L16" t="s">
         <v>1192</v>
@@ -20773,28 +20837,28 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C17" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D17" t="s">
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F17" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G17" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H17" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I17" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="J17" t="s">
         <v>1062</v>
@@ -20821,7 +20885,7 @@
         <v>124</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -20861,25 +20925,25 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C18" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="D18" t="s">
         <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F18" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G18" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H18" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I18" t="s">
         <v>1076</v>
@@ -20914,34 +20978,34 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C19" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="D19" t="s">
         <v>138</v>
       </c>
       <c r="E19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H19" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I19" t="s">
         <v>1076</v>
       </c>
       <c r="J19" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="K19" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -20976,28 +21040,28 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C20" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D20" t="s">
         <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F20" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G20" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H20" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I20" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="J20" t="s">
         <v>1072</v>
@@ -21006,7 +21070,7 @@
         <v>1073</v>
       </c>
       <c r="L20" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="M20" s="1">
         <v>8</v>
@@ -21030,34 +21094,34 @@
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C21" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="D21" t="s">
         <v>148</v>
       </c>
       <c r="E21" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F21" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G21" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H21" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I21" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="J21" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="K21" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="L21" t="s">
         <v>548</v>
@@ -21101,34 +21165,34 @@
         <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C22" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="D22" t="s">
         <v>545</v>
       </c>
       <c r="E22" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F22" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G22" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H22" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I22" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="J22" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="K22" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="L22" t="s">
         <v>1194</v>
@@ -21157,25 +21221,25 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C29" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D29" t="s">
         <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F29" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G29" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H29" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="I29" t="s">
         <v>1154</v>
@@ -21237,34 +21301,37 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C30" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D30" t="s">
         <v>764</v>
       </c>
       <c r="E30" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F30" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G30" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H30" t="s">
-        <v>1306</v>
+        <v>1304</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1154</v>
       </c>
       <c r="J30" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="K30" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="L30" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>1039</v>
@@ -21326,34 +21393,37 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C31" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="D31" t="s">
         <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G31" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H31" t="s">
-        <v>1306</v>
+        <v>1304</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1154</v>
       </c>
       <c r="J31" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="K31" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="L31" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="M31">
         <v>2</v>
@@ -21415,34 +21485,37 @@
         <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C32" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D32" t="s">
         <v>148</v>
       </c>
       <c r="E32" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F32" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G32" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H32" t="s">
-        <v>1306</v>
+        <v>1304</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1154</v>
       </c>
       <c r="J32" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="K32" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="L32" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="M32">
         <v>4</v>
@@ -21513,34 +21586,37 @@
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C33" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="D33" t="s">
         <v>558</v>
       </c>
       <c r="E33" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F33" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G33" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H33" t="s">
-        <v>1306</v>
+        <v>1304</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1154</v>
       </c>
       <c r="J33" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="K33" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="L33" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -21599,34 +21675,37 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C34" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="D34" t="s">
         <v>139</v>
       </c>
       <c r="E34" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F34" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="G34" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H34" t="s">
-        <v>1306</v>
+        <v>1304</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1154</v>
       </c>
       <c r="J34" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="K34" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="L34" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="Q34" s="1" t="s">
         <v>127</v>
@@ -21682,52 +21761,58 @@
         <v>1</v>
       </c>
       <c r="B35" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1467</v>
+      </c>
+      <c r="K35" t="s">
         <v>1380</v>
       </c>
-      <c r="C35" t="s">
-        <v>1365</v>
-      </c>
-      <c r="D35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1360</v>
-      </c>
-      <c r="K35" t="s">
-        <v>1383</v>
-      </c>
       <c r="L35" t="s">
-        <v>1369</v>
-      </c>
-      <c r="M35">
-        <v>3</v>
+        <v>1367</v>
       </c>
       <c r="N35">
-        <v>9</v>
-      </c>
-      <c r="O35" t="s">
-        <v>1038</v>
-      </c>
-      <c r="P35" t="s">
-        <v>1044</v>
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>12</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>1292</v>
       </c>
       <c r="T35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="U35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X35" t="s">
         <v>818</v>
@@ -21753,17 +21838,17 @@
       <c r="AE35" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AF35" s="1" t="s">
         <v>818</v>
       </c>
       <c r="AG35" t="s">
         <v>818</v>
       </c>
       <c r="AH35">
-        <v>-100</v>
+        <v>325</v>
       </c>
       <c r="AI35">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.3">
@@ -21771,49 +21856,55 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1358</v>
+      </c>
+      <c r="K36" t="s">
         <v>1380</v>
       </c>
-      <c r="C36" t="s">
-        <v>1366</v>
-      </c>
-      <c r="D36" t="s">
-        <v>560</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1361</v>
-      </c>
-      <c r="K36" t="s">
-        <v>1383</v>
-      </c>
       <c r="L36" t="s">
-        <v>1369</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1041</v>
-      </c>
-      <c r="N36" t="s">
-        <v>1291</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>1039</v>
+        <v>1367</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>9</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1038</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1044</v>
       </c>
       <c r="T36" t="s">
         <v>122</v>
       </c>
       <c r="U36" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="X36" t="s">
         <v>818</v>
@@ -21846,7 +21937,10 @@
         <v>818</v>
       </c>
       <c r="AH36">
-        <v>350</v>
+        <v>-100</v>
+      </c>
+      <c r="AI36">
+        <v>-50</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.3">
@@ -21854,43 +21948,49 @@
         <v>1</v>
       </c>
       <c r="B37" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D37" t="s">
+        <v>560</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K37" t="s">
         <v>1380</v>
       </c>
-      <c r="C37" t="s">
+      <c r="L37" t="s">
         <v>1367</v>
       </c>
-      <c r="D37" t="s">
-        <v>559</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1362</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1383</v>
-      </c>
-      <c r="L37" t="s">
-        <v>1369</v>
-      </c>
       <c r="M37" t="s">
-        <v>1293</v>
+        <v>1041</v>
       </c>
       <c r="N37" t="s">
-        <v>1042</v>
+        <v>1291</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>1039</v>
       </c>
       <c r="T37" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="U37" t="s">
         <v>99</v>
@@ -21919,17 +22019,14 @@
       <c r="AE37" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="AF37" s="1" t="s">
+      <c r="AF37" t="s">
         <v>818</v>
       </c>
       <c r="AG37" t="s">
         <v>818</v>
       </c>
       <c r="AH37">
-        <v>325</v>
-      </c>
-      <c r="AI37">
-        <v>250</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.3">
@@ -21937,49 +22034,49 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D38" t="s">
+        <v>559</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1360</v>
+      </c>
+      <c r="K38" t="s">
         <v>1380</v>
       </c>
-      <c r="C38" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D38" t="s">
-        <v>545</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1306</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1306</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1306</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1363</v>
-      </c>
-      <c r="K38" t="s">
-        <v>1383</v>
-      </c>
       <c r="L38" t="s">
-        <v>1369</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
-        <v>5</v>
-      </c>
-      <c r="Q38" s="1" t="s">
-        <v>1308</v>
+        <v>1367</v>
+      </c>
+      <c r="M38" t="s">
+        <v>1293</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1042</v>
       </c>
       <c r="T38" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="U38" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="X38" t="s">
         <v>818</v>
@@ -22005,7 +22102,7 @@
       <c r="AE38" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="AF38" t="s">
+      <c r="AF38" s="1" t="s">
         <v>818</v>
       </c>
       <c r="AG38" t="s">
@@ -22015,7 +22112,176 @@
         <v>325</v>
       </c>
       <c r="AI38">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D39" t="s">
+        <v>545</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L39" t="s">
+        <v>1367</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="T39" t="s">
+        <v>121</v>
+      </c>
+      <c r="U39" t="s">
+        <v>121</v>
+      </c>
+      <c r="X39" t="s">
+        <v>818</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>818</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>818</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>818</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>818</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>818</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE39" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>818</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>818</v>
+      </c>
+      <c r="AH39">
+        <v>325</v>
+      </c>
+      <c r="AI39">
         <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D40" t="s">
+        <v>545</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1304</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1154</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1460</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1380</v>
+      </c>
+      <c r="L40" t="s">
+        <v>1367</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s">
+        <v>121</v>
+      </c>
+      <c r="U40" t="s">
+        <v>121</v>
+      </c>
+      <c r="X40" t="s">
+        <v>818</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>818</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>818</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>818</v>
+      </c>
+      <c r="AB40" t="s">
+        <v>818</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>818</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE40" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>818</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>818</v>
+      </c>
+      <c r="AH40">
+        <v>325</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22025,10 +22291,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672B0A44-B9B0-4CC7-BB18-FD9A829231D6}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22046,122 +22312,146 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B3" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="B4" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1303</v>
+        <v>1469</v>
       </c>
       <c r="B5" t="s">
-        <v>1381</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1349</v>
+        <v>1301</v>
       </c>
       <c r="B6" t="s">
-        <v>1370</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1175</v>
+        <v>1347</v>
       </c>
       <c r="B7" t="s">
-        <v>1348</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1202</v>
+        <v>1175</v>
       </c>
       <c r="B8" t="s">
-        <v>1301</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1174</v>
+        <v>1202</v>
       </c>
       <c r="B9" t="s">
-        <v>1173</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1397</v>
+        <v>1174</v>
       </c>
       <c r="B10" t="s">
-        <v>1398</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>1201</v>
+        <v>1394</v>
       </c>
       <c r="B11" t="s">
-        <v>1299</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="B12" t="s">
-        <v>1300</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B13" t="s">
-        <v>1305</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B14" t="s">
-        <v>1206</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1190</v>
+        <v>1205</v>
       </c>
       <c r="B15" t="s">
-        <v>1191</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1377</v>
+        <v>1190</v>
       </c>
       <c r="B16" t="s">
-        <v>1378</v>
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1465</v>
       </c>
     </row>
   </sheetData>
